--- a/HW2-NormalModes/TableNormalModes.xlsx
+++ b/HW2-NormalModes/TableNormalModes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\0Uni\AA - Advanced Aeroelasticity\AA_Nastran\AA-Nastran-Homeworks\HW2-NormalModes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F8991-E3E2-4CF6-99F2-12871B0903FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A16B3F-1F16-4AD2-9332-3FDFA9CA0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14016" windowHeight="12336" xr2:uid="{FF5BA922-1C33-4B30-9A9B-D90F27F16F03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF5BA922-1C33-4B30-9A9B-D90F27F16F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,16 +266,10 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -302,32 +296,29 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,648 +654,832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9661274-680D-438C-AC90-3C1E8A7A85D1}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="10"/>
-    <col min="3" max="3" width="11.5546875" style="5"/>
-    <col min="4" max="4" width="11.5546875" style="21"/>
-    <col min="5" max="5" width="11.5546875" style="8"/>
+    <col min="2" max="2" width="11.5546875" style="8"/>
+    <col min="3" max="4" width="11.5546875" style="2"/>
+    <col min="5" max="5" width="11.5546875" style="7"/>
     <col min="6" max="6" width="11.5546875" style="1"/>
     <col min="7" max="7" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="11"/>
-    <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="11"/>
+    <col min="8" max="8" width="11.5546875" style="9"/>
+    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="9"/>
     <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1.240014E-3</v>
+      </c>
+      <c r="K2" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>4.6885209999999997</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F3" s="12"/>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>6.8193889999999997E-4</v>
+      </c>
+      <c r="K3" s="22">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>6.2796219999999998</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" cm="1">
         <f t="array" ref="A4:A29">_xlfn.SEQUENCE(32-6,1,7)</f>
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>4.8663939999999997</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="9">
         <v>4.8689260000000001</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.8528039999999999E-4</v>
+      </c>
+      <c r="K4" s="22">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>10.05142</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>5.7819450000000003</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="13">
         <v>5.8080879999999997</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F5" s="12"/>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4.8756219999999999</v>
+      </c>
+      <c r="K5" s="22">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10.38921</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>9.0307040000000001</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="13">
         <v>9.0366230000000005</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F6" s="12"/>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11">
+        <v>9.8858519999999999</v>
+      </c>
+      <c r="K6" s="22">
+        <v>5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>12.966670000000001</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>9.8355530000000009</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="9">
         <v>9.8853600000000004</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>10.55367</v>
+      </c>
+      <c r="K7" s="22">
+        <v>6</v>
+      </c>
+      <c r="L7" s="11">
+        <v>15.754720000000001</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>10.52116</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="9">
         <v>10.548069999999999</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="H8" s="9">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11">
+        <v>12.96697</v>
+      </c>
+      <c r="K8" s="22">
+        <v>7</v>
+      </c>
+      <c r="L8" s="11">
+        <v>19.630469999999999</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>11.03345</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13">
         <v>11.086460000000001</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>15.755179999999999</v>
+      </c>
+      <c r="K9" s="22">
+        <v>8</v>
+      </c>
+      <c r="L9" s="11">
+        <v>21.761980000000001</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>12.96637</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="9">
         <v>12.961790000000001</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11">
+        <v>19.26981</v>
+      </c>
+      <c r="K10" s="22">
+        <v>9</v>
+      </c>
+      <c r="L10" s="11">
+        <v>22.786180000000002</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>12.979649999999999</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="13">
         <v>13.04603</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11">
+        <v>19.80106</v>
+      </c>
+      <c r="K11" s="22">
+        <v>10</v>
+      </c>
+      <c r="L11" s="11">
+        <v>25.283370000000001</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>14.722390000000001</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9">
+        <v>11</v>
+      </c>
+      <c r="I12" s="11">
+        <v>21.949110000000001</v>
+      </c>
+      <c r="K12" s="22">
+        <v>11</v>
+      </c>
+      <c r="L12" s="11">
+        <v>31.16957</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>15.75952</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="9">
         <v>15.75088</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11">
+        <v>25.79448</v>
+      </c>
+      <c r="K13" s="22">
+        <v>12</v>
+      </c>
+      <c r="L13" s="11">
+        <v>35.304349999999999</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>15.76811</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13">
         <v>15.75591</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9">
+        <v>13</v>
+      </c>
+      <c r="I14" s="11">
+        <v>35.092449999999999</v>
+      </c>
+      <c r="K14" s="22">
+        <v>13</v>
+      </c>
+      <c r="L14" s="11">
+        <v>41.58455</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>18.737950000000001</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="9">
         <v>19.25703</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45.259120000000003</v>
+      </c>
+      <c r="K15" s="22">
+        <v>14</v>
+      </c>
+      <c r="L15" s="11">
+        <v>45.247929999999997</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>19</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>19.669260000000001</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="13">
         <v>19.461770000000001</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="22">
+        <v>15</v>
+      </c>
+      <c r="L16" s="11">
+        <v>48.058509999999998</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>19.697500000000002</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="9">
         <v>19.798110000000001</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>21</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>21.606870000000001</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="13">
         <v>20.123799999999999</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>21.875779999999999</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="9">
         <v>21.911539999999999</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="E19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>23</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>22.709019999999999</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="13">
         <v>22.763680000000001</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>24</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>23.182179999999999</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="13">
         <v>23.641729999999999</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>25</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>25.091249999999999</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="9">
         <v>25.73922</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>26</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>28.216609999999999</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="18">
         <v>34.981859999999998</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="I23" s="14"/>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>27</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>28.419070000000001</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="13">
         <v>31.780760000000001</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>28</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>36.982320000000001</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="13">
         <v>34.831969999999998</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
-      <c r="I25" s="14"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>29</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>42.118400000000001</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="13">
         <v>38.788240000000002</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>30</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>45.210659999999997</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="9">
         <v>45.146769999999997</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
+      <c r="E27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>31</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>45.816090000000003</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="19">
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="15">
         <v>44.203850000000003</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>32</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>49.135039999999996</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="19">
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="15">
         <v>46.233879999999999</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F32" s="14"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
